--- a/techniqo/data_new_ticker/ADANIPORTS.xlsx
+++ b/techniqo/data_new_ticker/ADANIPORTS.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -63,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1412"/>
+  <dimension ref="A1:G1414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1391" workbookViewId="0">
+      <selection activeCell="I1402" sqref="I1402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -49806,6 +49815,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>355.1</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>352.65</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>2042343</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>353.55</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>1998100</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ADANIPORTS.xlsx
+++ b/techniqo/data_new_ticker/ADANIPORTS.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1414"/>
+  <dimension ref="A1:G1416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1391" workbookViewId="0">
       <selection activeCell="I1402" sqref="I1402"/>
@@ -49865,6 +49865,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>345</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>346.1</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>2433213</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>4963128</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
